--- a/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/Table5.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb111/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F840FE-E026-D841-ACD8-3EE720D998B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E7039-1646-8640-93C9-C76E983BA058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="740" windowWidth="25040" windowHeight="14500" xr2:uid="{9F6A0A72-7BB2-EF41-8C36-D63943F7650D}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{9F6A0A72-7BB2-EF41-8C36-D63943F7650D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,18 +38,9 @@
     <t>Season</t>
   </si>
   <si>
-    <t>Up to 21 feet</t>
-  </si>
-  <si>
     <t>25 to 39 feet</t>
   </si>
   <si>
-    <t>10 to 61 feet</t>
-  </si>
-  <si>
-    <t>65 to 81 feet</t>
-  </si>
-  <si>
     <t>85 to 99 feet</t>
   </si>
   <si>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Up to 24 feet</t>
+  </si>
+  <si>
+    <t>40 to 61 feet</t>
+  </si>
+  <si>
+    <t>65 to 84 feet</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF256F7-25FA-6842-A0A6-DA4096C41EDE}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,33 +462,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>731</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>631</v>
